--- a/microbench.xlsx
+++ b/microbench.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7C49D17D-618B-4E7F-AD71-30B41F910E72}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{ACF69ACD-75E7-4287-B6AD-10C65E017965}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="1605" xr2:uid="{3E858DCE-2DF8-49EC-95DA-5AD0EAE86CB9}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>std.dev</t>
   </si>
   <si>
-    <t>Results are for 1,000 iterations where in each iteraction various number of libxdong.so functions are invoked.</t>
-  </si>
-  <si>
     <t># of TLB entries</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t xml:space="preserve"> # of functions invoked per iteration = # of TLB entries needed</t>
+  </si>
+  <si>
+    <t>Results are for the sum of 1,000 iterations where in each iteraction various number of libxdong.so functions are invoked.</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -220,12 +220,6 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -240,6 +234,12 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,7 +559,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -587,129 +587,129 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" s="17">
         <v>64</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8">
+      <c r="C11" s="18"/>
+      <c r="D11" s="17">
         <v>128</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8">
+      <c r="E11" s="18"/>
+      <c r="F11" s="17">
         <v>768</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8">
+      <c r="G11" s="18"/>
+      <c r="H11" s="17">
         <v>1000</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8">
+      <c r="I11" s="18"/>
+      <c r="J11" s="17">
         <v>1536</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="8">
+      <c r="K11" s="18"/>
+      <c r="L11" s="17">
         <v>2000</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="8">
+      <c r="M11" s="18"/>
+      <c r="N11" s="17">
         <v>5000</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="8">
+      <c r="O11" s="18"/>
+      <c r="P11" s="17">
         <v>40000</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="8">
+      <c r="Q11" s="18"/>
+      <c r="R11" s="17">
         <v>320000</v>
       </c>
-      <c r="S11" s="9"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="12" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -717,58 +717,58 @@
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>465063.09307300003</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>92.417811140652503</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>1132966.1039199999</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>597.77295905805704</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>60685276.110600002</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <v>242392.330290438</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>88213731.510700002</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <v>390580.23618034599</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <v>159389408.51499999</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <v>730409.77706175903</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="10">
         <v>231604157.34799999</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="11">
         <v>964192.23574969405</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="10">
         <v>674241228.19799995</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <v>2457330.48974148</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="10">
         <v>15857839943.700001</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="11">
         <v>42775083.339730598</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="10">
         <v>184736508125</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="11">
         <v>245438608.28278399</v>
       </c>
     </row>
@@ -776,58 +776,58 @@
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>0.52865200000000001</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>1.56393094476706E-4</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>2.5729350000000002</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>1.4733850481119901E-3</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>7275.2803000000004</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="11">
         <v>198.59409314332899</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>11200.555700000001</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="11">
         <v>185.52730972506399</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>250898.07399999999</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="11">
         <v>790.96619241407404</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="10">
         <v>1824067.7163</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="11">
         <v>1143.9516523249699</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="10">
         <v>5132890.1670000004</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="11">
         <v>2447.2226811462801</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="10">
         <v>43584401.07</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="11">
         <v>3495.7255457566998</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="10">
         <v>505267621.5</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="11">
         <v>64123.877288903801</v>
       </c>
     </row>
@@ -835,58 +835,58 @@
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>12.565507</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>0.57529279119224097</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>52.235585</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>0.47829456728150199</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>152583.44870000001</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <v>7952.72514286764</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>262620.87270000001</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <v>5126.8881616346498</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <v>5291715.3645000001</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="11">
         <v>44289.843213339802</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="10">
         <v>38739838.049099997</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="11">
         <v>413829.21098760999</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="10">
         <v>109642009.707</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="11">
         <v>141485.15014996001</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="10">
         <v>952273394.37</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="11">
         <v>657254.27297688299</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="10">
         <v>13257731452.1</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="11">
         <v>13931116.5118008</v>
       </c>
     </row>
@@ -894,138 +894,138 @@
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>34.271166000000001</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>7.4348192724728301</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>156972.56613699999</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>452.04503570822499</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>11013355.702199999</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
         <v>33723.497484255102</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>14588239.032600001</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="11">
         <v>12798.567463077499</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <v>26008506.5865</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="11">
         <v>47319.271899285799</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="10">
         <v>53522213.227200001</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="11">
         <v>394721.27441776497</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="10">
         <v>145269088.54100001</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="11">
         <v>186467.76517644801</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="10">
         <v>2901640321.9699998</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="11">
         <v>12248267.3966066</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="10">
         <v>31700765892.200001</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="11">
         <v>58498257.803889401</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>464704.87973400002</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>280.36402699610301</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>1133885.0226100001</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <v>249.37540202270301</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>60635683.754600003</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <v>173142.874697283</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>88211291.626599997</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <v>476211.73418470402</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>159081664.27900001</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <v>843518.85740435205</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="10">
         <v>232261519.30000001</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="11">
         <v>810531.64154175704</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="10">
         <v>674012699.14400005</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>1763735.6253826499</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="10">
         <v>15870638588.299999</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="11">
         <v>55398120.125598103</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="10">
         <v>184937091771</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="11">
         <v>308630560.63376498</v>
       </c>
     </row>
@@ -1033,58 +1033,58 @@
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>0.98837699999999995</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>3.98804805186697E-2</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>9864.3200175000002</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>17.501336292143598</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>780496.90190000006</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <v>1019.05213751172</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="10">
         <v>1027512.8303</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <v>1193.64140117639</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <v>1388654.8077</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="11">
         <v>1715.85813895509</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="10">
         <v>360443.29599999997</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="11">
         <v>1311.989305392</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="10">
         <v>407002.27799999999</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>3570.2901921605398</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="10">
         <v>23003256.16</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="11">
         <v>22228.7172996667</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="10">
         <v>171733500.19999999</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="11">
         <v>142267.37342497599</v>
       </c>
     </row>
@@ -1092,58 +1092,58 @@
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>13.274369</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>0.54049969118533203</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>52.5070975</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <v>0.55266832721714698</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>151266.42439999999</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <v>8098.00345078803</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <v>266916.74160000001</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="11">
         <v>8536.0789298833497</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="10">
         <v>5219605.3059999999</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <v>58381.082158676203</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="10">
         <v>38708275.652999997</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="11">
         <v>274680.98253204802</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="10">
         <v>109638609.50300001</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <v>273335.33077883697</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="10">
         <v>951678552.91999996</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="11">
         <v>1201433.1344866599</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="10">
         <v>13261491276.299999</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="11">
         <v>10975061.2151537</v>
       </c>
     </row>
@@ -1151,371 +1151,371 @@
       <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>32.112223</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>1.4445144552504201</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>157874.13682499999</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <v>213.083378904006</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>11038703.4133</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="11">
         <v>18468.084396533799</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <v>14587021.3939</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="11">
         <v>24572.755825895099</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <v>25981650.376699999</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="11">
         <v>63962.402821658201</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="10">
         <v>53499468.081900001</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="11">
         <v>288850.82258287602</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="10">
         <v>145424031.553</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="11">
         <v>225287.12287430701</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="10">
         <v>2902654350.4400001</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="11">
         <v>10374330.993248301</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="10">
         <v>31769712627.700001</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="11">
         <v>32400914.690094002</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="13"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="13"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="12">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10">
         <f>B15/B14</f>
         <v>23.768957650779718</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12">
+      <c r="C24" s="11"/>
+      <c r="D24" s="10">
         <f t="shared" ref="D24:R24" si="0">D15/D14</f>
         <v>20.30194505496641</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12">
+      <c r="E24" s="11"/>
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>20.972861856607778</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12">
+      <c r="G24" s="11"/>
+      <c r="H24" s="10">
         <f t="shared" si="0"/>
         <v>23.447128850937279</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="12">
+      <c r="I24" s="11"/>
+      <c r="J24" s="10">
         <f t="shared" si="0"/>
         <v>21.091095998210015</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12">
+      <c r="K24" s="11"/>
+      <c r="L24" s="10">
         <f t="shared" si="0"/>
         <v>21.238157828746171</v>
       </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="12">
+      <c r="M24" s="11"/>
+      <c r="N24" s="10">
         <f t="shared" si="0"/>
         <v>21.360677150643578</v>
       </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="12">
+      <c r="O24" s="11"/>
+      <c r="P24" s="10">
         <f t="shared" si="0"/>
         <v>21.848949876369151</v>
       </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="12">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="10">
         <f t="shared" si="0"/>
         <v>26.239028364298225</v>
       </c>
-      <c r="S24" s="13"/>
+      <c r="S24" s="11"/>
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="12">
+        <v>11</v>
+      </c>
+      <c r="B25" s="10">
         <f>(B21-B20)/B19</f>
         <v>19.059381187542812</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12">
+      <c r="C25" s="11"/>
+      <c r="D25" s="10">
         <f t="shared" ref="D25:R25" si="1">(D21-D20)/D19</f>
         <v>15.999240641778986</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12">
+      <c r="E25" s="11"/>
+      <c r="F25" s="10">
         <f t="shared" si="1"/>
         <v>13.949366054363834</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12">
+      <c r="G25" s="11"/>
+      <c r="H25" s="10">
         <f t="shared" si="1"/>
         <v>13.936667484842014</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="12">
+      <c r="I25" s="11"/>
+      <c r="J25" s="10">
         <f t="shared" si="1"/>
         <v>14.951192301769897</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12">
+      <c r="K25" s="11"/>
+      <c r="L25" s="10">
         <f t="shared" si="1"/>
         <v>41.036114676134815</v>
       </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="12">
+      <c r="M25" s="11"/>
+      <c r="N25" s="10">
         <f t="shared" si="1"/>
         <v>87.924377784440793</v>
       </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="12">
+      <c r="O25" s="11"/>
+      <c r="P25" s="10">
         <f t="shared" si="1"/>
         <v>84.813027510101861</v>
       </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="12">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="10">
         <f t="shared" si="1"/>
         <v>107.77292333671309</v>
       </c>
-      <c r="S25" s="13"/>
+      <c r="S25" s="11"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="12">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10">
         <f>B20/B21</f>
         <v>0.41337434035631854</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12">
+      <c r="C26" s="11"/>
+      <c r="D26" s="10">
         <f t="shared" ref="D26:R26" si="2">D20/D21</f>
         <v>3.3258834256179E-4</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12">
+      <c r="E26" s="11"/>
+      <c r="F26" s="10">
         <f t="shared" si="2"/>
         <v>1.3703278250754194E-2</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12">
+      <c r="G26" s="11"/>
+      <c r="H26" s="10">
         <f t="shared" si="2"/>
         <v>1.8298234738424339E-2</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="12">
+      <c r="I26" s="11"/>
+      <c r="J26" s="10">
         <f t="shared" si="2"/>
         <v>0.20089583341791378</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12">
+      <c r="K26" s="11"/>
+      <c r="L26" s="10">
         <f t="shared" si="2"/>
         <v>0.723526364668583</v>
       </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="12">
+      <c r="M26" s="11"/>
+      <c r="N26" s="10">
         <f t="shared" si="2"/>
         <v>0.75392360074299036</v>
       </c>
-      <c r="O26" s="13"/>
-      <c r="P26" s="12">
+      <c r="O26" s="11"/>
+      <c r="P26" s="10">
         <f t="shared" si="2"/>
         <v>0.32786492569318126</v>
       </c>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="12">
+      <c r="Q26" s="11"/>
+      <c r="R26" s="10">
         <f t="shared" si="2"/>
         <v>0.41742559750878294</v>
       </c>
-      <c r="S26" s="13"/>
+      <c r="S26" s="11"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="12">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10">
         <f>(B16/B13 + B21/B18)/2</f>
         <v>7.1396917311833188E-5</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12">
+      <c r="C27" s="11"/>
+      <c r="D27" s="10">
         <f t="shared" ref="D27:R27" si="3">(D16/D13 + D21/D18)/2</f>
         <v>0.13889151587551707</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12">
+      <c r="E27" s="11"/>
+      <c r="F27" s="10">
         <f t="shared" si="3"/>
         <v>0.18176639210674356</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12">
+      <c r="G27" s="11"/>
+      <c r="H27" s="10">
         <f t="shared" si="3"/>
         <v>0.16536917437463144</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="12">
+      <c r="I27" s="11"/>
+      <c r="J27" s="10">
         <f t="shared" si="3"/>
         <v>0.16324929954333223</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="12">
+      <c r="K27" s="11"/>
+      <c r="L27" s="10">
         <f t="shared" si="3"/>
         <v>0.23071749831907867</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="12">
+      <c r="M27" s="11"/>
+      <c r="N27" s="10">
         <f t="shared" si="3"/>
         <v>0.21560712623445777</v>
       </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="12">
+      <c r="O27" s="11"/>
+      <c r="P27" s="10">
         <f t="shared" si="3"/>
         <v>0.18293644940985276</v>
       </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="12">
+      <c r="Q27" s="11"/>
+      <c r="R27" s="10">
         <f t="shared" si="3"/>
         <v>0.17169324456465876</v>
       </c>
-      <c r="S27" s="13"/>
+      <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="15"/>
+      <c r="P28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="17"/>
-      <c r="N28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="16" t="s">
+      <c r="Q28" s="15"/>
+      <c r="R28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28" s="17"/>
+      <c r="S28" s="15"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="O29" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>128</v>
@@ -1523,10 +1523,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
         <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
       </c>
       <c r="C40">
         <v>1536</v>
@@ -1534,24 +1534,24 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>4096</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>31</v>
+      <c r="D41" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42">
         <f>256*1024/64*8</f>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D43">
         <v>42</v>

--- a/microbench.xlsx
+++ b/microbench.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{ACF69ACD-75E7-4287-B6AD-10C65E017965}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7AC30BFD-35BB-42E7-BF64-C384349EB8B8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="1605" xr2:uid="{3E858DCE-2DF8-49EC-95DA-5AD0EAE86CB9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="1605" activeTab="1" xr2:uid="{3E858DCE-2DF8-49EC-95DA-5AD0EAE86CB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="performance" sheetId="1" r:id="rId1"/>
+    <sheet name="basepage" sheetId="1" r:id="rId1"/>
+    <sheet name="superpg" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -141,6 +142,30 @@
   </si>
   <si>
     <t>Results are for the sum of 1,000 iterations where in each iteraction various number of libxdong.so functions are invoked.</t>
+  </si>
+  <si>
+    <t>5 instructions per function</t>
+  </si>
+  <si>
+    <t>TLB/memory hierachy capacity for 8MB TLB entries</t>
+  </si>
+  <si>
+    <t>8 entries/thread</t>
+  </si>
+  <si>
+    <t>8 /thread</t>
+  </si>
+  <si>
+    <t>Results are for the sum of 1e5 iterations, where each iteraction invokes the sequence of fuctions from fun0 to funX</t>
+  </si>
+  <si>
+    <t>Each function is mapped to a different 64B cache line in a different 2MB superpage</t>
+  </si>
+  <si>
+    <t>A bunch of functions recursively invoked the next one in sequence according to function number (e.g., fun0 has function number 0)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -183,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,12 +225,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -241,6 +275,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -556,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A925F28-B441-4D5A-A6B7-D32FEEC2A803}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -592,640 +630,624 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B12" s="17">
         <v>64</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17">
+      <c r="C12" s="18"/>
+      <c r="D12" s="17">
         <v>128</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17">
+      <c r="E12" s="18"/>
+      <c r="F12" s="17">
         <v>768</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17">
+      <c r="G12" s="18"/>
+      <c r="H12" s="17">
         <v>1000</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17">
+      <c r="I12" s="18"/>
+      <c r="J12" s="17">
         <v>1536</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17">
+      <c r="K12" s="18"/>
+      <c r="L12" s="17">
         <v>2000</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17">
+      <c r="M12" s="18"/>
+      <c r="N12" s="17">
         <v>5000</v>
       </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="17">
+      <c r="O12" s="18"/>
+      <c r="P12" s="17">
         <v>40000</v>
       </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="17">
+      <c r="Q12" s="18"/>
+      <c r="R12" s="17">
         <v>320000</v>
       </c>
-      <c r="S11" s="18"/>
-    </row>
-    <row r="12" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S13" s="9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="10">
-        <v>465063.09307300003</v>
-      </c>
-      <c r="C13" s="11">
-        <v>92.417811140652503</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1132966.1039199999</v>
-      </c>
-      <c r="E13" s="11">
-        <v>597.77295905805704</v>
-      </c>
-      <c r="F13" s="10">
-        <v>60685276.110600002</v>
-      </c>
-      <c r="G13" s="11">
-        <v>242392.330290438</v>
-      </c>
-      <c r="H13" s="10">
-        <v>88213731.510700002</v>
-      </c>
-      <c r="I13" s="11">
-        <v>390580.23618034599</v>
-      </c>
-      <c r="J13" s="10">
-        <v>159389408.51499999</v>
-      </c>
-      <c r="K13" s="11">
-        <v>730409.77706175903</v>
-      </c>
-      <c r="L13" s="10">
-        <v>231604157.34799999</v>
-      </c>
-      <c r="M13" s="11">
-        <v>964192.23574969405</v>
-      </c>
-      <c r="N13" s="10">
-        <v>674241228.19799995</v>
-      </c>
-      <c r="O13" s="11">
-        <v>2457330.48974148</v>
-      </c>
-      <c r="P13" s="10">
-        <v>15857839943.700001</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>42775083.339730598</v>
-      </c>
-      <c r="R13" s="10">
-        <v>184736508125</v>
-      </c>
-      <c r="S13" s="11">
-        <v>245438608.28278399</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="10">
-        <v>0.52865200000000001</v>
+        <v>465063.09307300003</v>
       </c>
       <c r="C14" s="11">
-        <v>1.56393094476706E-4</v>
+        <v>92.417811140652503</v>
       </c>
       <c r="D14" s="10">
-        <v>2.5729350000000002</v>
+        <v>1132966.1039199999</v>
       </c>
       <c r="E14" s="11">
-        <v>1.4733850481119901E-3</v>
+        <v>597.77295905805704</v>
       </c>
       <c r="F14" s="10">
-        <v>7275.2803000000004</v>
+        <v>60685276.110600002</v>
       </c>
       <c r="G14" s="11">
-        <v>198.59409314332899</v>
+        <v>242392.330290438</v>
       </c>
       <c r="H14" s="10">
-        <v>11200.555700000001</v>
+        <v>88213731.510700002</v>
       </c>
       <c r="I14" s="11">
-        <v>185.52730972506399</v>
+        <v>390580.23618034599</v>
       </c>
       <c r="J14" s="10">
-        <v>250898.07399999999</v>
+        <v>159389408.51499999</v>
       </c>
       <c r="K14" s="11">
-        <v>790.96619241407404</v>
+        <v>730409.77706175903</v>
       </c>
       <c r="L14" s="10">
-        <v>1824067.7163</v>
+        <v>231604157.34799999</v>
       </c>
       <c r="M14" s="11">
-        <v>1143.9516523249699</v>
+        <v>964192.23574969405</v>
       </c>
       <c r="N14" s="10">
-        <v>5132890.1670000004</v>
+        <v>674241228.19799995</v>
       </c>
       <c r="O14" s="11">
-        <v>2447.2226811462801</v>
+        <v>2457330.48974148</v>
       </c>
       <c r="P14" s="10">
-        <v>43584401.07</v>
+        <v>15857839943.700001</v>
       </c>
       <c r="Q14" s="11">
-        <v>3495.7255457566998</v>
+        <v>42775083.339730598</v>
       </c>
       <c r="R14" s="10">
-        <v>505267621.5</v>
+        <v>184736508125</v>
       </c>
       <c r="S14" s="11">
-        <v>64123.877288903801</v>
+        <v>245438608.28278399</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="10">
-        <v>12.565507</v>
+        <v>0.52865200000000001</v>
       </c>
       <c r="C15" s="11">
-        <v>0.57529279119224097</v>
+        <v>1.56393094476706E-4</v>
       </c>
       <c r="D15" s="10">
-        <v>52.235585</v>
+        <v>2.5729350000000002</v>
       </c>
       <c r="E15" s="11">
-        <v>0.47829456728150199</v>
+        <v>1.4733850481119901E-3</v>
       </c>
       <c r="F15" s="10">
-        <v>152583.44870000001</v>
+        <v>7275.2803000000004</v>
       </c>
       <c r="G15" s="11">
-        <v>7952.72514286764</v>
+        <v>198.59409314332899</v>
       </c>
       <c r="H15" s="10">
-        <v>262620.87270000001</v>
+        <v>11200.555700000001</v>
       </c>
       <c r="I15" s="11">
-        <v>5126.8881616346498</v>
+        <v>185.52730972506399</v>
       </c>
       <c r="J15" s="10">
-        <v>5291715.3645000001</v>
+        <v>250898.07399999999</v>
       </c>
       <c r="K15" s="11">
-        <v>44289.843213339802</v>
+        <v>790.96619241407404</v>
       </c>
       <c r="L15" s="10">
-        <v>38739838.049099997</v>
+        <v>1824067.7163</v>
       </c>
       <c r="M15" s="11">
-        <v>413829.21098760999</v>
+        <v>1143.9516523249699</v>
       </c>
       <c r="N15" s="10">
-        <v>109642009.707</v>
+        <v>5132890.1670000004</v>
       </c>
       <c r="O15" s="11">
-        <v>141485.15014996001</v>
+        <v>2447.2226811462801</v>
       </c>
       <c r="P15" s="10">
-        <v>952273394.37</v>
+        <v>43584401.07</v>
       </c>
       <c r="Q15" s="11">
-        <v>657254.27297688299</v>
+        <v>3495.7255457566998</v>
       </c>
       <c r="R15" s="10">
-        <v>13257731452.1</v>
+        <v>505267621.5</v>
       </c>
       <c r="S15" s="11">
-        <v>13931116.5118008</v>
+        <v>64123.877288903801</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10">
+        <v>12.565507</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.57529279119224097</v>
+      </c>
+      <c r="D16" s="10">
+        <v>52.235585</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.47829456728150199</v>
+      </c>
+      <c r="F16" s="10">
+        <v>152583.44870000001</v>
+      </c>
+      <c r="G16" s="11">
+        <v>7952.72514286764</v>
+      </c>
+      <c r="H16" s="10">
+        <v>262620.87270000001</v>
+      </c>
+      <c r="I16" s="11">
+        <v>5126.8881616346498</v>
+      </c>
+      <c r="J16" s="10">
+        <v>5291715.3645000001</v>
+      </c>
+      <c r="K16" s="11">
+        <v>44289.843213339802</v>
+      </c>
+      <c r="L16" s="10">
+        <v>38739838.049099997</v>
+      </c>
+      <c r="M16" s="11">
+        <v>413829.21098760999</v>
+      </c>
+      <c r="N16" s="10">
+        <v>109642009.707</v>
+      </c>
+      <c r="O16" s="11">
+        <v>141485.15014996001</v>
+      </c>
+      <c r="P16" s="10">
+        <v>952273394.37</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>657254.27297688299</v>
+      </c>
+      <c r="R16" s="10">
+        <v>13257731452.1</v>
+      </c>
+      <c r="S16" s="11">
+        <v>13931116.5118008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B17" s="10">
         <v>34.271166000000001</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="11">
         <v>7.4348192724728301</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <v>156972.56613699999</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>452.04503570822499</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>11013355.702199999</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>33723.497484255102</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H17" s="10">
         <v>14588239.032600001</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I17" s="11">
         <v>12798.567463077499</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J17" s="10">
         <v>26008506.5865</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K17" s="11">
         <v>47319.271899285799</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L17" s="10">
         <v>53522213.227200001</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M17" s="11">
         <v>394721.27441776497</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N17" s="10">
         <v>145269088.54100001</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O17" s="11">
         <v>186467.76517644801</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P17" s="10">
         <v>2901640321.9699998</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q17" s="11">
         <v>12248267.3966066</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R17" s="10">
         <v>31700765892.200001</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S17" s="11">
         <v>58498257.803889401</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11"/>
-    </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="10">
-        <v>464704.87973400002</v>
-      </c>
-      <c r="C18" s="11">
-        <v>280.36402699610301</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1133885.0226100001</v>
-      </c>
-      <c r="E18" s="11">
-        <v>249.37540202270301</v>
-      </c>
-      <c r="F18" s="10">
-        <v>60635683.754600003</v>
-      </c>
-      <c r="G18" s="11">
-        <v>173142.874697283</v>
-      </c>
-      <c r="H18" s="10">
-        <v>88211291.626599997</v>
-      </c>
-      <c r="I18" s="11">
-        <v>476211.73418470402</v>
-      </c>
-      <c r="J18" s="10">
-        <v>159081664.27900001</v>
-      </c>
-      <c r="K18" s="11">
-        <v>843518.85740435205</v>
-      </c>
-      <c r="L18" s="10">
-        <v>232261519.30000001</v>
-      </c>
-      <c r="M18" s="11">
-        <v>810531.64154175704</v>
-      </c>
-      <c r="N18" s="10">
-        <v>674012699.14400005</v>
-      </c>
-      <c r="O18" s="11">
-        <v>1763735.6253826499</v>
-      </c>
-      <c r="P18" s="10">
-        <v>15870638588.299999</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>55398120.125598103</v>
-      </c>
-      <c r="R18" s="10">
-        <v>184937091771</v>
-      </c>
-      <c r="S18" s="11">
-        <v>308630560.63376498</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B19" s="10">
-        <v>0.98837699999999995</v>
+        <v>464704.87973400002</v>
       </c>
       <c r="C19" s="11">
-        <v>3.98804805186697E-2</v>
+        <v>280.36402699610301</v>
       </c>
       <c r="D19" s="10">
-        <v>9864.3200175000002</v>
+        <v>1133885.0226100001</v>
       </c>
       <c r="E19" s="11">
-        <v>17.501336292143598</v>
+        <v>249.37540202270301</v>
       </c>
       <c r="F19" s="10">
-        <v>780496.90190000006</v>
+        <v>60635683.754600003</v>
       </c>
       <c r="G19" s="11">
-        <v>1019.05213751172</v>
+        <v>173142.874697283</v>
       </c>
       <c r="H19" s="10">
-        <v>1027512.8303</v>
+        <v>88211291.626599997</v>
       </c>
       <c r="I19" s="11">
-        <v>1193.64140117639</v>
+        <v>476211.73418470402</v>
       </c>
       <c r="J19" s="10">
-        <v>1388654.8077</v>
+        <v>159081664.27900001</v>
       </c>
       <c r="K19" s="11">
-        <v>1715.85813895509</v>
+        <v>843518.85740435205</v>
       </c>
       <c r="L19" s="10">
-        <v>360443.29599999997</v>
+        <v>232261519.30000001</v>
       </c>
       <c r="M19" s="11">
-        <v>1311.989305392</v>
+        <v>810531.64154175704</v>
       </c>
       <c r="N19" s="10">
-        <v>407002.27799999999</v>
+        <v>674012699.14400005</v>
       </c>
       <c r="O19" s="11">
-        <v>3570.2901921605398</v>
+        <v>1763735.6253826499</v>
       </c>
       <c r="P19" s="10">
-        <v>23003256.16</v>
+        <v>15870638588.299999</v>
       </c>
       <c r="Q19" s="11">
-        <v>22228.7172996667</v>
+        <v>55398120.125598103</v>
       </c>
       <c r="R19" s="10">
-        <v>171733500.19999999</v>
+        <v>184937091771</v>
       </c>
       <c r="S19" s="11">
-        <v>142267.37342497599</v>
+        <v>308630560.63376498</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="10">
-        <v>13.274369</v>
+        <v>0.98837699999999995</v>
       </c>
       <c r="C20" s="11">
-        <v>0.54049969118533203</v>
+        <v>3.98804805186697E-2</v>
       </c>
       <c r="D20" s="10">
-        <v>52.5070975</v>
+        <v>9864.3200175000002</v>
       </c>
       <c r="E20" s="11">
-        <v>0.55266832721714698</v>
+        <v>17.501336292143598</v>
       </c>
       <c r="F20" s="10">
-        <v>151266.42439999999</v>
+        <v>780496.90190000006</v>
       </c>
       <c r="G20" s="11">
-        <v>8098.00345078803</v>
+        <v>1019.05213751172</v>
       </c>
       <c r="H20" s="10">
-        <v>266916.74160000001</v>
+        <v>1027512.8303</v>
       </c>
       <c r="I20" s="11">
-        <v>8536.0789298833497</v>
+        <v>1193.64140117639</v>
       </c>
       <c r="J20" s="10">
-        <v>5219605.3059999999</v>
+        <v>1388654.8077</v>
       </c>
       <c r="K20" s="11">
-        <v>58381.082158676203</v>
+        <v>1715.85813895509</v>
       </c>
       <c r="L20" s="10">
-        <v>38708275.652999997</v>
+        <v>360443.29599999997</v>
       </c>
       <c r="M20" s="11">
-        <v>274680.98253204802</v>
+        <v>1311.989305392</v>
       </c>
       <c r="N20" s="10">
-        <v>109638609.50300001</v>
+        <v>407002.27799999999</v>
       </c>
       <c r="O20" s="11">
-        <v>273335.33077883697</v>
+        <v>3570.2901921605398</v>
       </c>
       <c r="P20" s="10">
-        <v>951678552.91999996</v>
+        <v>23003256.16</v>
       </c>
       <c r="Q20" s="11">
-        <v>1201433.1344866599</v>
+        <v>22228.7172996667</v>
       </c>
       <c r="R20" s="10">
-        <v>13261491276.299999</v>
+        <v>171733500.19999999</v>
       </c>
       <c r="S20" s="11">
-        <v>10975061.2151537</v>
+        <v>142267.37342497599</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10">
+        <v>13.274369</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.54049969118533203</v>
+      </c>
+      <c r="D21" s="10">
+        <v>52.5070975</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.55266832721714698</v>
+      </c>
+      <c r="F21" s="10">
+        <v>151266.42439999999</v>
+      </c>
+      <c r="G21" s="11">
+        <v>8098.00345078803</v>
+      </c>
+      <c r="H21" s="10">
+        <v>266916.74160000001</v>
+      </c>
+      <c r="I21" s="11">
+        <v>8536.0789298833497</v>
+      </c>
+      <c r="J21" s="10">
+        <v>5219605.3059999999</v>
+      </c>
+      <c r="K21" s="11">
+        <v>58381.082158676203</v>
+      </c>
+      <c r="L21" s="10">
+        <v>38708275.652999997</v>
+      </c>
+      <c r="M21" s="11">
+        <v>274680.98253204802</v>
+      </c>
+      <c r="N21" s="10">
+        <v>109638609.50300001</v>
+      </c>
+      <c r="O21" s="11">
+        <v>273335.33077883697</v>
+      </c>
+      <c r="P21" s="10">
+        <v>951678552.91999996</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>1201433.1344866599</v>
+      </c>
+      <c r="R21" s="10">
+        <v>13261491276.299999</v>
+      </c>
+      <c r="S21" s="11">
+        <v>10975061.2151537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B22" s="10">
         <v>32.112223</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C22" s="11">
         <v>1.4445144552504201</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>157874.13682499999</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>213.083378904006</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>11038703.4133</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>18468.084396533799</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H22" s="10">
         <v>14587021.3939</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="11">
         <v>24572.755825895099</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J22" s="10">
         <v>25981650.376699999</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K22" s="11">
         <v>63962.402821658201</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L22" s="10">
         <v>53499468.081900001</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M22" s="11">
         <v>288850.82258287602</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N22" s="10">
         <v>145424031.553</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O22" s="11">
         <v>225287.12287430701</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P22" s="10">
         <v>2902654350.4400001</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q22" s="11">
         <v>10374330.993248301</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R22" s="10">
         <v>31769712627.700001</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S22" s="11">
         <v>32400914.690094002</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
@@ -1249,343 +1271,1233 @@
       <c r="S23" s="13"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="10">
-        <f>B15/B14</f>
+      <c r="B25" s="10">
+        <f>B16/B15</f>
         <v>23.768957650779718</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10">
-        <f t="shared" ref="D24:R24" si="0">D15/D14</f>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10">
+        <f t="shared" ref="D25:R25" si="0">D16/D15</f>
         <v>20.30194505496641</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10">
+      <c r="E25" s="11"/>
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>20.972861856607778</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10">
+      <c r="G25" s="11"/>
+      <c r="H25" s="10">
         <f t="shared" si="0"/>
         <v>23.447128850937279</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="10">
+      <c r="I25" s="11"/>
+      <c r="J25" s="10">
         <f t="shared" si="0"/>
         <v>21.091095998210015</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="10">
+      <c r="K25" s="11"/>
+      <c r="L25" s="10">
         <f t="shared" si="0"/>
         <v>21.238157828746171</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="10">
+      <c r="M25" s="11"/>
+      <c r="N25" s="10">
         <f t="shared" si="0"/>
         <v>21.360677150643578</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="10">
+      <c r="O25" s="11"/>
+      <c r="P25" s="10">
         <f t="shared" si="0"/>
         <v>21.848949876369151</v>
       </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="10">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="10">
         <f t="shared" si="0"/>
         <v>26.239028364298225</v>
       </c>
-      <c r="S24" s="11"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+      <c r="S25" s="11"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="B26" s="10">
+        <f>(B22-B21)/B20</f>
+        <v>19.059381187542812</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10">
+        <f t="shared" ref="D26:R26" si="1">(D22-D21)/D20</f>
+        <v>15.999240641778986</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>13.949366054363834</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>13.936667484842014</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>14.951192301769897</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="10">
+        <f t="shared" si="1"/>
+        <v>41.036114676134815</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10">
+        <f t="shared" si="1"/>
+        <v>87.924377784440793</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="10">
+        <f t="shared" si="1"/>
+        <v>84.813027510101861</v>
+      </c>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>107.77292333671309</v>
+      </c>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="10">
+        <f>B21/B22</f>
+        <v>0.41337434035631854</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:R27" si="2">D21/D22</f>
+        <v>3.3258834256179E-4</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3703278250754194E-2</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8298234738424339E-2</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20089583341791378</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="10">
+        <f t="shared" si="2"/>
+        <v>0.723526364668583</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10">
+        <f t="shared" si="2"/>
+        <v>0.75392360074299036</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32786492569318126</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="10">
+        <f t="shared" si="2"/>
+        <v>0.41742559750878294</v>
+      </c>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10">
+        <f>(B17/B14 + B22/B19)/2</f>
+        <v>7.1396917311833188E-5</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28:R28" si="3">(D17/D14 + D22/D19)/2</f>
+        <v>0.13889151587551707</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.18176639210674356</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.16536917437463144</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.16324929954333223</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.23071749831907867</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.21560712623445777</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.18293644940985276</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.17169324456465876</v>
+      </c>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="15"/>
+      <c r="P29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" s="15"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>4096</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <f>256*1024/64*8</f>
+        <v>32768</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E994B5E-2A10-40A8-AA9C-8099E04A1752}">
+  <dimension ref="A7:T44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="17">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17">
+        <v>8</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17">
+        <v>9</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17">
+        <v>1535</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17">
+        <v>1536</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="17">
+        <v>1537</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10">
+        <v>52380008.579499997</v>
+      </c>
+      <c r="C14" s="11">
+        <v>9834.5895663113097</v>
+      </c>
+      <c r="D14" s="10">
+        <v>61046958.953699999</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4548.5497367266498</v>
+      </c>
+      <c r="F14" s="10">
+        <v>70539293.297000006</v>
+      </c>
+      <c r="G14" s="11">
+        <v>9268.9340177392605</v>
+      </c>
+      <c r="H14" s="10">
+        <v>13469504317.1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>12316092.5457063</v>
+      </c>
+      <c r="J14" s="10">
+        <v>13478058438.6</v>
+      </c>
+      <c r="K14" s="11">
+        <v>12170645.673912199</v>
+      </c>
+      <c r="L14" s="10">
+        <v>13489592238</v>
+      </c>
+      <c r="M14" s="20">
+        <v>10647855.8975411</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10">
+        <v>6.7492000000000001</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5.5102283074297299E-2</v>
+      </c>
+      <c r="D15" s="10">
+        <v>8.9468999999999994</v>
+      </c>
+      <c r="E15" s="11">
+        <v>6.6223017146608401E-2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>11.502700000000001</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3.1406330572035901E-2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1365546.31</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1555.99633221932</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1364639.17</v>
+      </c>
+      <c r="K15" s="11">
+        <v>2186.4344607273201</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1367565.57</v>
+      </c>
+      <c r="M15" s="20">
+        <v>1075.37222912626</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10">
+        <v>249.93049999999999</v>
+      </c>
+      <c r="C16" s="11">
+        <v>20.0708021815372</v>
+      </c>
+      <c r="D16" s="10">
+        <v>329.50080000000003</v>
+      </c>
+      <c r="E16" s="11">
+        <v>19.3193241843083</v>
+      </c>
+      <c r="F16" s="10">
+        <v>449.93369999999999</v>
+      </c>
+      <c r="G16" s="11">
+        <v>5.6345251258291498</v>
+      </c>
+      <c r="H16" s="10">
+        <v>68876432</v>
+      </c>
+      <c r="I16" s="11">
+        <v>99411.379014839593</v>
+      </c>
+      <c r="J16" s="10">
+        <v>69412725.980000004</v>
+      </c>
+      <c r="K16" s="11">
+        <v>160803.642533704</v>
+      </c>
+      <c r="L16" s="10">
+        <v>68887835.769999996</v>
+      </c>
+      <c r="M16" s="20">
+        <v>334723.30643710901</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10">
+        <v>376.04169999999999</v>
+      </c>
+      <c r="C17" s="11">
+        <v>20.787534538910499</v>
+      </c>
+      <c r="D17" s="10">
+        <v>495.12419999999997</v>
+      </c>
+      <c r="E17" s="11">
+        <v>19.906118054407202</v>
+      </c>
+      <c r="F17" s="10">
+        <v>35134295.646399997</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2417.1762592140699</v>
+      </c>
+      <c r="H17" s="10">
+        <v>208049509.71000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2484012.7659607301</v>
+      </c>
+      <c r="J17" s="10">
+        <v>209053851.24000001</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1287541.7673230299</v>
+      </c>
+      <c r="L17" s="10">
+        <v>208921443.75999999</v>
+      </c>
+      <c r="M17" s="20">
+        <v>1655528.57179404</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="10">
+        <v>52375008.145599999</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4557.90086824234</v>
+      </c>
+      <c r="D19" s="10">
+        <v>61050921.824900001</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2945.0867703349199</v>
+      </c>
+      <c r="F19" s="10">
+        <v>70535626.999300003</v>
+      </c>
+      <c r="G19" s="11">
+        <v>12620.092265826601</v>
+      </c>
+      <c r="H19" s="10">
+        <v>13469933900.1</v>
+      </c>
+      <c r="I19" s="11">
+        <v>10385607.2141215</v>
+      </c>
+      <c r="J19" s="10">
+        <v>13476951797.9</v>
+      </c>
+      <c r="K19" s="11">
+        <v>12543644.2043839</v>
+      </c>
+      <c r="L19" s="10">
+        <v>13486652156.5</v>
+      </c>
+      <c r="M19" s="20">
+        <v>11420195.1050807</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="10">
+        <v>6.1897000000000002</v>
+      </c>
+      <c r="C20" s="11">
+        <v>6.38227106914145E-2</v>
+      </c>
+      <c r="D20" s="10">
+        <v>8.2566000000000006</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4.4367943382581897E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>99985.016300000003</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.42647962483570001</v>
+      </c>
+      <c r="H20" s="10">
+        <v>52003.35</v>
+      </c>
+      <c r="I20" s="11">
+        <v>4825.2385784398202</v>
+      </c>
+      <c r="J20" s="10">
+        <v>52038.27</v>
+      </c>
+      <c r="K20" s="11">
+        <v>58.219454961378602</v>
+      </c>
+      <c r="L20" s="10">
+        <v>52134.91</v>
+      </c>
+      <c r="M20" s="20">
+        <v>27.611521508239999</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10">
+        <v>245.47139999999999</v>
+      </c>
+      <c r="C21" s="11">
+        <v>8.9481818824608101</v>
+      </c>
+      <c r="D21" s="10">
+        <v>337.81420000000003</v>
+      </c>
+      <c r="E21" s="11">
+        <v>12.561261868363299</v>
+      </c>
+      <c r="F21" s="10">
+        <v>411.48129999999998</v>
+      </c>
+      <c r="G21" s="11">
+        <v>16.550570626368099</v>
+      </c>
+      <c r="H21" s="10">
+        <v>68916337.799999997</v>
+      </c>
+      <c r="I21" s="11">
+        <v>144309.771113547</v>
+      </c>
+      <c r="J21" s="10">
+        <v>68953046.329999998</v>
+      </c>
+      <c r="K21" s="11">
+        <v>141958.87869688601</v>
+      </c>
+      <c r="L21" s="10">
+        <v>69192439.650000006</v>
+      </c>
+      <c r="M21" s="20">
+        <v>165540.41800437399</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10">
+        <v>369.25740000000002</v>
+      </c>
+      <c r="C22" s="11">
+        <v>8.6288926982782606</v>
+      </c>
+      <c r="D22" s="10">
+        <v>501.75029999999998</v>
+      </c>
+      <c r="E22" s="11">
+        <v>12.7448012926055</v>
+      </c>
+      <c r="F22" s="10">
+        <v>35124771.921800002</v>
+      </c>
+      <c r="G22" s="11">
+        <v>6295.60923011675</v>
+      </c>
+      <c r="H22" s="10">
+        <v>204975475.78</v>
+      </c>
+      <c r="I22" s="11">
+        <v>2298744.3516162699</v>
+      </c>
+      <c r="J22" s="10">
+        <v>208748473.02000001</v>
+      </c>
+      <c r="K22" s="11">
+        <v>903811.45937358995</v>
+      </c>
+      <c r="L22" s="10">
+        <v>207416076.88999999</v>
+      </c>
+      <c r="M22" s="20">
+        <v>1352077.3578972099</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="13"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B25" s="10">
-        <f>(B21-B20)/B19</f>
-        <v>19.059381187542812</v>
+        <f>B16/B15</f>
+        <v>37.03112961536182</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10">
-        <f t="shared" ref="D25:R25" si="1">(D21-D20)/D19</f>
-        <v>15.999240641778986</v>
+        <f t="shared" ref="D25:R25" si="0">D16/D15</f>
+        <v>36.828488079670059</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="10">
-        <f t="shared" si="1"/>
-        <v>13.949366054363834</v>
+        <f t="shared" si="0"/>
+        <v>39.115485929390488</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="10">
-        <f t="shared" si="1"/>
-        <v>13.936667484842014</v>
+        <f t="shared" si="0"/>
+        <v>50.438737592136292</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="10">
-        <f t="shared" si="1"/>
-        <v>14.951192301769897</v>
+        <f t="shared" si="0"/>
+        <v>50.865259847407138</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="10">
-        <f t="shared" si="1"/>
-        <v>41.036114676134815</v>
+        <f t="shared" ref="L25:M25" si="1">L16/L15</f>
+        <v>50.372601710059129</v>
       </c>
       <c r="M25" s="11"/>
-      <c r="N25" s="10">
-        <f t="shared" si="1"/>
-        <v>87.924377784440793</v>
-      </c>
+      <c r="N25" s="10"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="10">
-        <f t="shared" si="1"/>
-        <v>84.813027510101861</v>
-      </c>
+      <c r="P25" s="10"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="10">
-        <f t="shared" si="1"/>
-        <v>107.77292333671309</v>
-      </c>
+      <c r="R25" s="10"/>
       <c r="S25" s="11"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
-        <v>9</v>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B26" s="10">
-        <f>B20/B21</f>
-        <v>0.41337434035631854</v>
+        <f>(B22-B21)/B20</f>
+        <v>19.998707530251874</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="10">
-        <f t="shared" ref="D26:R26" si="2">D20/D21</f>
-        <v>3.3258834256179E-4</v>
+        <f t="shared" ref="D26:R26" si="2">(D22-D21)/D20</f>
+        <v>19.855158297604333</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="10">
         <f t="shared" si="2"/>
-        <v>1.3703278250754194E-2</v>
+        <v>351.29624157994965</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="10">
-        <f t="shared" si="2"/>
-        <v>1.8298234738424339E-2</v>
+      <c r="H26" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="10">
-        <f t="shared" si="2"/>
-        <v>0.20089583341791378</v>
+      <c r="J26" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="K26" s="11"/>
-      <c r="L26" s="10">
-        <f t="shared" si="2"/>
-        <v>0.723526364668583</v>
+      <c r="L26" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="M26" s="11"/>
-      <c r="N26" s="10">
-        <f t="shared" si="2"/>
-        <v>0.75392360074299036</v>
-      </c>
+      <c r="N26" s="10"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="10">
-        <f t="shared" si="2"/>
-        <v>0.32786492569318126</v>
-      </c>
+      <c r="P26" s="10"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="10">
-        <f t="shared" si="2"/>
-        <v>0.41742559750878294</v>
-      </c>
+      <c r="R26" s="10"/>
       <c r="S26" s="11"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="10">
-        <f>(B16/B13 + B21/B18)/2</f>
-        <v>7.1396917311833188E-5</v>
+        <f>B21/B22</f>
+        <v>0.66477042843284917</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="10">
-        <f t="shared" ref="D27:R27" si="3">(D16/D13 + D21/D18)/2</f>
-        <v>0.13889151587551707</v>
+        <f t="shared" ref="D27:R27" si="3">D21/D22</f>
+        <v>0.6732715456273769</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="10">
         <f t="shared" si="3"/>
-        <v>0.18176639210674356</v>
+        <v>1.1714846175118259E-5</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="10">
         <f t="shared" si="3"/>
-        <v>0.16536917437463144</v>
+        <v>0.33621747937283891</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="10">
         <f t="shared" si="3"/>
-        <v>0.16324929954333223</v>
+        <v>0.33031641061821643</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.23071749831907867</v>
+        <f t="shared" ref="L27:M27" si="4">L21/L22</f>
+        <v>0.33359246152695859</v>
       </c>
       <c r="M27" s="11"/>
-      <c r="N27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.21560712623445777</v>
-      </c>
+      <c r="N27" s="10"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.18293644940985276</v>
-      </c>
+      <c r="P27" s="10"/>
       <c r="Q27" s="11"/>
-      <c r="R27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.17169324456465876</v>
-      </c>
+      <c r="R27" s="10"/>
       <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10">
+        <f>(B17/B14 + B22/B19)/2</f>
+        <v>7.1146833932405066E-6</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28:R28" si="5">(D17/D14 + D22/D19)/2</f>
+        <v>8.1645502741990828E-6</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.49802663166905692</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="10">
+        <f t="shared" si="5"/>
+        <v>1.5331612756149944E-2</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="10">
+        <f t="shared" si="5"/>
+        <v>1.5499987154934603E-2</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="10">
+        <f t="shared" ref="L28:M28" si="6">(L17/L14 + L22/L19)/2</f>
+        <v>1.5433481230384287E-2</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="14" t="s">
+      <c r="I29" s="15"/>
+      <c r="J29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="14" t="s">
+      <c r="K29" s="15"/>
+      <c r="L29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S28" s="15"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="O29" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
+      <c r="M29" s="15"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="15"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>15</v>
       </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40">
-        <v>1536</v>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>4096</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>30</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>4096</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>25</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <f>256*1024/64*8</f>
         <v>32768</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/microbench.xlsx
+++ b/microbench.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7AC30BFD-35BB-42E7-BF64-C384349EB8B8}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8F5D8592-8AA8-4E7C-98FB-5398E79C952F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="1605" activeTab="1" xr2:uid="{3E858DCE-2DF8-49EC-95DA-5AD0EAE86CB9}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>8 /thread</t>
   </si>
   <si>
-    <t>Results are for the sum of 1e5 iterations, where each iteraction invokes the sequence of fuctions from fun0 to funX</t>
-  </si>
-  <si>
     <t>Each function is mapped to a different 64B cache line in a different 2MB superpage</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Results are for when the input argument = 1e5, where each iteraction invokes the sequence of fuctions from fun0 to funX</t>
   </si>
 </sst>
 </file>
@@ -269,16 +269,16 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -662,42 +662,42 @@
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="19">
         <v>64</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17">
+      <c r="C12" s="20"/>
+      <c r="D12" s="19">
         <v>128</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17">
+      <c r="E12" s="20"/>
+      <c r="F12" s="19">
         <v>768</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17">
+      <c r="G12" s="20"/>
+      <c r="H12" s="19">
         <v>1000</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17">
+      <c r="I12" s="20"/>
+      <c r="J12" s="19">
         <v>1536</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17">
+      <c r="K12" s="20"/>
+      <c r="L12" s="19">
         <v>2000</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17">
+      <c r="M12" s="20"/>
+      <c r="N12" s="19">
         <v>5000</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="17">
+      <c r="O12" s="20"/>
+      <c r="P12" s="19">
         <v>40000</v>
       </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="17">
+      <c r="Q12" s="20"/>
+      <c r="R12" s="19">
         <v>320000</v>
       </c>
-      <c r="S12" s="18"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
@@ -1639,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E994B5E-2A10-40A8-AA9C-8099E04A1752}">
   <dimension ref="A7:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1668,17 +1668,17 @@
   <sheetData>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -1690,36 +1690,36 @@
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="19">
         <v>7</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17">
+      <c r="C12" s="20"/>
+      <c r="D12" s="19">
         <v>8</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17">
+      <c r="E12" s="20"/>
+      <c r="F12" s="19">
         <v>9</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17">
+      <c r="G12" s="20"/>
+      <c r="H12" s="19">
         <v>1535</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17">
+      <c r="I12" s="20"/>
+      <c r="J12" s="19">
         <v>1536</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17">
+      <c r="K12" s="20"/>
+      <c r="L12" s="19">
         <v>1537</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
@@ -1756,7 +1756,7 @@
       <c r="L13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N13" s="8"/>
@@ -1803,7 +1803,7 @@
       <c r="L14" s="10">
         <v>13489592238</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="18">
         <v>10647855.8975411</v>
       </c>
       <c r="N14" s="10"/>
@@ -1850,7 +1850,7 @@
       <c r="L15" s="10">
         <v>1367565.57</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="18">
         <v>1075.37222912626</v>
       </c>
       <c r="N15" s="10"/>
@@ -1897,7 +1897,7 @@
       <c r="L16" s="10">
         <v>68887835.769999996</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="18">
         <v>334723.30643710901</v>
       </c>
       <c r="N16" s="10"/>
@@ -1944,7 +1944,7 @@
       <c r="L17" s="10">
         <v>208921443.75999999</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="18">
         <v>1655528.57179404</v>
       </c>
       <c r="N17" s="10"/>
@@ -1967,7 +1967,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="20"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="10"/>
       <c r="O18" s="11"/>
       <c r="P18" s="10"/>
@@ -2012,7 +2012,7 @@
       <c r="L19" s="10">
         <v>13486652156.5</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="18">
         <v>11420195.1050807</v>
       </c>
       <c r="N19" s="10"/>
@@ -2059,7 +2059,7 @@
       <c r="L20" s="10">
         <v>52134.91</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="18">
         <v>27.611521508239999</v>
       </c>
       <c r="N20" s="10"/>
@@ -2106,7 +2106,7 @@
       <c r="L21" s="10">
         <v>69192439.650000006</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="18">
         <v>165540.41800437399</v>
       </c>
       <c r="N21" s="10"/>
@@ -2153,7 +2153,7 @@
       <c r="L22" s="10">
         <v>207416076.88999999</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="18">
         <v>1352077.3578972099</v>
       </c>
       <c r="N22" s="10"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10">
-        <f t="shared" ref="D25:R25" si="0">D16/D15</f>
+        <f t="shared" ref="D25:J25" si="0">D16/D15</f>
         <v>36.828488079670059</v>
       </c>
       <c r="E25" s="11"/>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="10">
-        <f t="shared" ref="L25:M25" si="1">L16/L15</f>
+        <f t="shared" ref="L25" si="1">L16/L15</f>
         <v>50.372601710059129</v>
       </c>
       <c r="M25" s="11"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="10">
-        <f t="shared" ref="D26:R26" si="2">(D22-D21)/D20</f>
+        <f t="shared" ref="D26:F26" si="2">(D22-D21)/D20</f>
         <v>19.855158297604333</v>
       </c>
       <c r="E26" s="11"/>
@@ -2267,15 +2267,15 @@
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="10"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="10">
-        <f t="shared" ref="D27:R27" si="3">D21/D22</f>
+        <f t="shared" ref="D27:J27" si="3">D21/D22</f>
         <v>0.6732715456273769</v>
       </c>
       <c r="E27" s="11"/>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="10">
-        <f t="shared" ref="L27:M27" si="4">L21/L22</f>
+        <f t="shared" ref="L27" si="4">L21/L22</f>
         <v>0.33359246152695859</v>
       </c>
       <c r="M27" s="11"/>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="10">
-        <f t="shared" ref="D28:R28" si="5">(D17/D14 + D22/D19)/2</f>
+        <f t="shared" ref="D28:J28" si="5">(D17/D14 + D22/D19)/2</f>
         <v>8.1645502741990828E-6</v>
       </c>
       <c r="E28" s="11"/>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="10">
-        <f t="shared" ref="L28:M28" si="6">(L17/L14 + L22/L19)/2</f>
+        <f t="shared" ref="L28" si="6">(L17/L14 + L22/L19)/2</f>
         <v>1.5433481230384287E-2</v>
       </c>
       <c r="M28" s="11"/>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>15</v>
       </c>

--- a/microbench.xlsx
+++ b/microbench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8F5D8592-8AA8-4E7C-98FB-5398E79C952F}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{210144E8-A254-44A7-9A84-289645DB4CED}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="1605" activeTab="1" xr2:uid="{3E858DCE-2DF8-49EC-95DA-5AD0EAE86CB9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -239,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -273,6 +273,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,42 +668,42 @@
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="21">
         <v>64</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19">
+      <c r="C12" s="22"/>
+      <c r="D12" s="21">
         <v>128</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19">
+      <c r="E12" s="22"/>
+      <c r="F12" s="21">
         <v>768</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19">
+      <c r="G12" s="22"/>
+      <c r="H12" s="21">
         <v>1000</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19">
+      <c r="I12" s="22"/>
+      <c r="J12" s="21">
         <v>1536</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="19">
+      <c r="K12" s="22"/>
+      <c r="L12" s="21">
         <v>2000</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19">
+      <c r="M12" s="22"/>
+      <c r="N12" s="21">
         <v>5000</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="19">
+      <c r="O12" s="22"/>
+      <c r="P12" s="21">
         <v>40000</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="19">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="21">
         <v>320000</v>
       </c>
-      <c r="S12" s="20"/>
+      <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
@@ -1639,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E994B5E-2A10-40A8-AA9C-8099E04A1752}">
   <dimension ref="A7:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1658,8 +1664,8 @@
     <col min="11" max="11" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.9296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.3984375" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
     <col min="16" max="16" width="16.9296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.9296875" bestFit="1" customWidth="1"/>
@@ -1690,36 +1696,38 @@
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="21">
+        <v>3</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21">
         <v>7</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19">
+      <c r="E12" s="22"/>
+      <c r="F12" s="19">
         <v>8</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19">
-        <v>9</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="19">
-        <v>1535</v>
+        <v>9</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="19">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="19">
+        <v>1536</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19">
         <v>1537</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
       <c r="O12" s="20"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="20"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
@@ -1756,11 +1764,15 @@
       <c r="L13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
+      <c r="N13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="8"/>
@@ -1771,43 +1783,45 @@
         <v>0</v>
       </c>
       <c r="B14" s="10">
+        <v>17450409</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10">
         <v>52380008.579499997</v>
       </c>
-      <c r="C14" s="11">
+      <c r="E14" s="11">
         <v>9834.5895663113097</v>
       </c>
-      <c r="D14" s="10">
+      <c r="F14" s="10">
         <v>61046958.953699999</v>
       </c>
-      <c r="E14" s="11">
+      <c r="G14" s="11">
         <v>4548.5497367266498</v>
       </c>
-      <c r="F14" s="10">
+      <c r="H14" s="10">
         <v>70539293.297000006</v>
       </c>
-      <c r="G14" s="11">
+      <c r="I14" s="11">
         <v>9268.9340177392605</v>
       </c>
-      <c r="H14" s="10">
+      <c r="J14" s="10">
         <v>13469504317.1</v>
       </c>
-      <c r="I14" s="11">
+      <c r="K14" s="11">
         <v>12316092.5457063</v>
       </c>
-      <c r="J14" s="10">
+      <c r="L14" s="10">
         <v>13478058438.6</v>
       </c>
-      <c r="K14" s="11">
+      <c r="M14" s="11">
         <v>12170645.673912199</v>
       </c>
-      <c r="L14" s="10">
+      <c r="N14" s="10">
         <v>13489592238</v>
       </c>
-      <c r="M14" s="18">
+      <c r="O14" s="18">
         <v>10647855.8975411</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="10"/>
@@ -1818,43 +1832,45 @@
         <v>1</v>
       </c>
       <c r="B15" s="10">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10">
         <v>6.7492000000000001</v>
       </c>
-      <c r="C15" s="11">
+      <c r="E15" s="11">
         <v>5.5102283074297299E-2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="F15" s="10">
         <v>8.9468999999999994</v>
       </c>
-      <c r="E15" s="11">
+      <c r="G15" s="11">
         <v>6.6223017146608401E-2</v>
       </c>
-      <c r="F15" s="10">
+      <c r="H15" s="10">
         <v>11.502700000000001</v>
       </c>
-      <c r="G15" s="11">
+      <c r="I15" s="11">
         <v>3.1406330572035901E-2</v>
       </c>
-      <c r="H15" s="10">
+      <c r="J15" s="10">
         <v>1365546.31</v>
       </c>
-      <c r="I15" s="11">
+      <c r="K15" s="11">
         <v>1555.99633221932</v>
       </c>
-      <c r="J15" s="10">
+      <c r="L15" s="10">
         <v>1364639.17</v>
       </c>
-      <c r="K15" s="11">
+      <c r="M15" s="11">
         <v>2186.4344607273201</v>
       </c>
-      <c r="L15" s="10">
+      <c r="N15" s="10">
         <v>1367565.57</v>
       </c>
-      <c r="M15" s="18">
+      <c r="O15" s="18">
         <v>1075.37222912626</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="10"/>
@@ -1865,43 +1881,45 @@
         <v>2</v>
       </c>
       <c r="B16" s="10">
+        <v>45</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10">
         <v>249.93049999999999</v>
       </c>
-      <c r="C16" s="11">
+      <c r="E16" s="11">
         <v>20.0708021815372</v>
       </c>
-      <c r="D16" s="10">
+      <c r="F16" s="10">
         <v>329.50080000000003</v>
       </c>
-      <c r="E16" s="11">
+      <c r="G16" s="11">
         <v>19.3193241843083</v>
       </c>
-      <c r="F16" s="10">
+      <c r="H16" s="10">
         <v>449.93369999999999</v>
       </c>
-      <c r="G16" s="11">
+      <c r="I16" s="11">
         <v>5.6345251258291498</v>
       </c>
-      <c r="H16" s="10">
+      <c r="J16" s="10">
         <v>68876432</v>
       </c>
-      <c r="I16" s="11">
+      <c r="K16" s="11">
         <v>99411.379014839593</v>
       </c>
-      <c r="J16" s="10">
+      <c r="L16" s="10">
         <v>69412725.980000004</v>
       </c>
-      <c r="K16" s="11">
+      <c r="M16" s="11">
         <v>160803.642533704</v>
       </c>
-      <c r="L16" s="10">
+      <c r="N16" s="10">
         <v>68887835.769999996</v>
       </c>
-      <c r="M16" s="18">
+      <c r="O16" s="18">
         <v>334723.30643710901</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="10"/>
@@ -1912,43 +1930,45 @@
         <v>3</v>
       </c>
       <c r="B17" s="10">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10">
         <v>376.04169999999999</v>
       </c>
-      <c r="C17" s="11">
+      <c r="E17" s="11">
         <v>20.787534538910499</v>
       </c>
-      <c r="D17" s="10">
+      <c r="F17" s="10">
         <v>495.12419999999997</v>
       </c>
-      <c r="E17" s="11">
+      <c r="G17" s="11">
         <v>19.906118054407202</v>
       </c>
-      <c r="F17" s="10">
+      <c r="H17" s="10">
         <v>35134295.646399997</v>
       </c>
-      <c r="G17" s="11">
+      <c r="I17" s="11">
         <v>2417.1762592140699</v>
       </c>
-      <c r="H17" s="10">
+      <c r="J17" s="10">
         <v>208049509.71000001</v>
       </c>
-      <c r="I17" s="11">
+      <c r="K17" s="11">
         <v>2484012.7659607301</v>
       </c>
-      <c r="J17" s="10">
+      <c r="L17" s="10">
         <v>209053851.24000001</v>
       </c>
-      <c r="K17" s="11">
+      <c r="M17" s="11">
         <v>1287541.7673230299</v>
       </c>
-      <c r="L17" s="10">
+      <c r="N17" s="10">
         <v>208921443.75999999</v>
       </c>
-      <c r="M17" s="18">
+      <c r="O17" s="18">
         <v>1655528.57179404</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="10"/>
@@ -1967,9 +1987,9 @@
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="18"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="10"/>
@@ -1980,43 +2000,45 @@
         <v>0</v>
       </c>
       <c r="B19" s="10">
+        <v>17450596</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10">
         <v>52375008.145599999</v>
       </c>
-      <c r="C19" s="11">
+      <c r="E19" s="11">
         <v>4557.90086824234</v>
       </c>
-      <c r="D19" s="10">
+      <c r="F19" s="10">
         <v>61050921.824900001</v>
       </c>
-      <c r="E19" s="11">
+      <c r="G19" s="11">
         <v>2945.0867703349199</v>
       </c>
-      <c r="F19" s="10">
+      <c r="H19" s="10">
         <v>70535626.999300003</v>
       </c>
-      <c r="G19" s="11">
+      <c r="I19" s="11">
         <v>12620.092265826601</v>
       </c>
-      <c r="H19" s="10">
+      <c r="J19" s="10">
         <v>13469933900.1</v>
       </c>
-      <c r="I19" s="11">
+      <c r="K19" s="11">
         <v>10385607.2141215</v>
       </c>
-      <c r="J19" s="10">
+      <c r="L19" s="10">
         <v>13476951797.9</v>
       </c>
-      <c r="K19" s="11">
+      <c r="M19" s="11">
         <v>12543644.2043839</v>
       </c>
-      <c r="L19" s="10">
+      <c r="N19" s="10">
         <v>13486652156.5</v>
       </c>
-      <c r="M19" s="18">
+      <c r="O19" s="18">
         <v>11420195.1050807</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="10"/>
@@ -2027,43 +2049,45 @@
         <v>4</v>
       </c>
       <c r="B20" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10">
         <v>6.1897000000000002</v>
       </c>
-      <c r="C20" s="11">
+      <c r="E20" s="11">
         <v>6.38227106914145E-2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="F20" s="10">
         <v>8.2566000000000006</v>
       </c>
-      <c r="E20" s="11">
+      <c r="G20" s="11">
         <v>4.4367943382581897E-2</v>
       </c>
-      <c r="F20" s="10">
+      <c r="H20" s="10">
         <v>99985.016300000003</v>
       </c>
-      <c r="G20" s="11">
+      <c r="I20" s="11">
         <v>0.42647962483570001</v>
       </c>
-      <c r="H20" s="10">
+      <c r="J20" s="10">
         <v>52003.35</v>
       </c>
-      <c r="I20" s="11">
+      <c r="K20" s="11">
         <v>4825.2385784398202</v>
       </c>
-      <c r="J20" s="10">
+      <c r="L20" s="10">
         <v>52038.27</v>
       </c>
-      <c r="K20" s="11">
+      <c r="M20" s="11">
         <v>58.219454961378602</v>
       </c>
-      <c r="L20" s="10">
+      <c r="N20" s="10">
         <v>52134.91</v>
       </c>
-      <c r="M20" s="18">
+      <c r="O20" s="18">
         <v>27.611521508239999</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="10"/>
@@ -2074,43 +2098,45 @@
         <v>2</v>
       </c>
       <c r="B21" s="10">
+        <v>45.2</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10">
         <v>245.47139999999999</v>
       </c>
-      <c r="C21" s="11">
+      <c r="E21" s="11">
         <v>8.9481818824608101</v>
       </c>
-      <c r="D21" s="10">
+      <c r="F21" s="10">
         <v>337.81420000000003</v>
       </c>
-      <c r="E21" s="11">
+      <c r="G21" s="11">
         <v>12.561261868363299</v>
       </c>
-      <c r="F21" s="10">
+      <c r="H21" s="10">
         <v>411.48129999999998</v>
       </c>
-      <c r="G21" s="11">
+      <c r="I21" s="11">
         <v>16.550570626368099</v>
       </c>
-      <c r="H21" s="10">
+      <c r="J21" s="10">
         <v>68916337.799999997</v>
       </c>
-      <c r="I21" s="11">
+      <c r="K21" s="11">
         <v>144309.771113547</v>
       </c>
-      <c r="J21" s="10">
+      <c r="L21" s="10">
         <v>68953046.329999998</v>
       </c>
-      <c r="K21" s="11">
+      <c r="M21" s="11">
         <v>141958.87869688601</v>
       </c>
-      <c r="L21" s="10">
+      <c r="N21" s="10">
         <v>69192439.650000006</v>
       </c>
-      <c r="M21" s="18">
+      <c r="O21" s="18">
         <v>165540.41800437399</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="10"/>
@@ -2121,43 +2147,45 @@
         <v>3</v>
       </c>
       <c r="B22" s="10">
+        <v>64.7</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10">
         <v>369.25740000000002</v>
       </c>
-      <c r="C22" s="11">
+      <c r="E22" s="11">
         <v>8.6288926982782606</v>
       </c>
-      <c r="D22" s="10">
+      <c r="F22" s="10">
         <v>501.75029999999998</v>
       </c>
-      <c r="E22" s="11">
+      <c r="G22" s="11">
         <v>12.7448012926055</v>
       </c>
-      <c r="F22" s="10">
+      <c r="H22" s="10">
         <v>35124771.921800002</v>
       </c>
-      <c r="G22" s="11">
+      <c r="I22" s="11">
         <v>6295.60923011675</v>
       </c>
-      <c r="H22" s="10">
+      <c r="J22" s="10">
         <v>204975475.78</v>
       </c>
-      <c r="I22" s="11">
+      <c r="K22" s="11">
         <v>2298744.3516162699</v>
       </c>
-      <c r="J22" s="10">
+      <c r="L22" s="10">
         <v>208748473.02000001</v>
       </c>
-      <c r="K22" s="11">
+      <c r="M22" s="11">
         <v>903811.45937358995</v>
       </c>
-      <c r="L22" s="10">
+      <c r="N22" s="10">
         <v>207416076.88999999</v>
       </c>
-      <c r="M22" s="18">
+      <c r="O22" s="18">
         <v>1352077.3578972099</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="10"/>
@@ -2211,35 +2239,38 @@
       </c>
       <c r="B25" s="10">
         <f>B16/B15</f>
-        <v>37.03112961536182</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10">
-        <f t="shared" ref="D25:J25" si="0">D16/D15</f>
-        <v>36.828488079670059</v>
+        <f>D16/D15</f>
+        <v>37.03112961536182</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="10">
-        <f t="shared" si="0"/>
-        <v>39.115485929390488</v>
+        <f t="shared" ref="F25:L25" si="0">F16/F15</f>
+        <v>36.828488079670059</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="10">
-        <f t="shared" si="0"/>
-        <v>50.438737592136292</v>
+        <f t="shared" ref="H25:N25" si="1">H16/H15</f>
+        <v>39.115485929390488</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="10">
-        <f t="shared" si="0"/>
-        <v>50.865259847407138</v>
+        <f t="shared" ref="J25:O25" si="2">J16/J15</f>
+        <v>50.438737592136292</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="10">
-        <f t="shared" ref="L25" si="1">L16/L15</f>
+        <f t="shared" ref="L25:O25" si="3">L16/L15</f>
+        <v>50.865259847407138</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="10">
+        <f t="shared" ref="L25:N25" si="4">N16/N15</f>
         <v>50.372601710059129</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="10"/>
       <c r="O25" s="11"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="11"/>
@@ -2253,21 +2284,22 @@
       </c>
       <c r="B26" s="10">
         <f>(B22-B21)/B20</f>
-        <v>19.998707530251874</v>
+        <v>20.103092783505154</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="10">
-        <f t="shared" ref="D26:F26" si="2">(D22-D21)/D20</f>
-        <v>19.855158297604333</v>
+        <f>(D22-D21)/D20</f>
+        <v>19.998707530251874</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F26:H26" si="5">(F22-F21)/F20</f>
+        <v>19.855158297604333</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10">
+        <f t="shared" ref="H26:J26" si="6">(H22-H21)/H20</f>
         <v>351.29624157994965</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="10" t="s">
@@ -2278,7 +2310,9 @@
         <v>43</v>
       </c>
       <c r="M26" s="11"/>
-      <c r="N26" s="10"/>
+      <c r="N26" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="11"/>
@@ -2291,35 +2325,38 @@
       </c>
       <c r="B27" s="10">
         <f>B21/B22</f>
-        <v>0.66477042843284917</v>
+        <v>0.69860896445131382</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="10">
-        <f t="shared" ref="D27:J27" si="3">D21/D22</f>
-        <v>0.6732715456273769</v>
+        <f>D21/D22</f>
+        <v>0.66477042843284917</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="10">
-        <f t="shared" si="3"/>
-        <v>1.1714846175118259E-5</v>
+        <f t="shared" ref="F27:L27" si="7">F21/F22</f>
+        <v>0.6732715456273769</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.33621747937283891</v>
+        <f t="shared" ref="H27:N27" si="8">H21/H22</f>
+        <v>1.1714846175118259E-5</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.33031641061821643</v>
+        <f t="shared" ref="J27:O27" si="9">J21/J22</f>
+        <v>0.33621747937283891</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="10">
-        <f t="shared" ref="L27" si="4">L21/L22</f>
+        <f t="shared" ref="L27:O27" si="10">L21/L22</f>
+        <v>0.33031641061821643</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10">
+        <f t="shared" ref="L27:N27" si="11">N21/N22</f>
         <v>0.33359246152695859</v>
       </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="10"/>
       <c r="O27" s="11"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="11"/>
@@ -2332,35 +2369,38 @@
       </c>
       <c r="B28" s="10">
         <f>(B17/B14 + B22/B19)/2</f>
-        <v>7.1146833932405066E-6</v>
+        <v>3.7133601475179008E-6</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="10">
-        <f t="shared" ref="D28:J28" si="5">(D17/D14 + D22/D19)/2</f>
-        <v>8.1645502741990828E-6</v>
+        <f>(D17/D14 + D22/D19)/2</f>
+        <v>7.1146833932405066E-6</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="10">
-        <f t="shared" si="5"/>
-        <v>0.49802663166905692</v>
+        <f t="shared" ref="F28:L28" si="12">(F17/F14 + F22/F19)/2</f>
+        <v>8.1645502741990828E-6</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="10">
-        <f t="shared" si="5"/>
-        <v>1.5331612756149944E-2</v>
+        <f t="shared" ref="H28:N28" si="13">(H17/H14 + H22/H19)/2</f>
+        <v>0.49802663166905692</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="10">
-        <f t="shared" si="5"/>
-        <v>1.5499987154934603E-2</v>
+        <f t="shared" ref="J28:O28" si="14">(J17/J14 + J22/J19)/2</f>
+        <v>1.5331612756149944E-2</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="10">
-        <f t="shared" ref="L28" si="6">(L17/L14 + L22/L19)/2</f>
+        <f t="shared" ref="L28:O28" si="15">(L17/L14 + L22/L19)/2</f>
+        <v>1.5499987154934603E-2</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="10">
+        <f t="shared" ref="L28:N28" si="16">(N17/N14 + N22/N19)/2</f>
         <v>1.5433481230384287E-2</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="10"/>
       <c r="O28" s="11"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="11"/>
@@ -2380,7 +2420,7 @@
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="14" t="s">
@@ -2392,10 +2432,12 @@
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="14"/>
       <c r="O29" s="15"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="15"/>
@@ -2488,16 +2530,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="N12:O12"/>
+  <mergeCells count="4">
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/microbench.xlsx
+++ b/microbench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{210144E8-A254-44A7-9A84-289645DB4CED}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E22A4C7B-1C0B-4DB0-958D-FE21C88226B1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="1605" activeTab="1" xr2:uid="{3E858DCE-2DF8-49EC-95DA-5AD0EAE86CB9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
   <si>
     <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
@@ -162,10 +162,7 @@
     <t>A bunch of functions recursively invoked the next one in sequence according to function number (e.g., fun0 has function number 0)</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Results are for when the input argument = 1e5, where each iteraction invokes the sequence of fuctions from fun0 to funX</t>
+    <t>Results are for when the input argument = 1e9, where each iteraction invokes the sequence of fuctions from fun0 to funX</t>
   </si>
 </sst>
 </file>
@@ -603,7 +600,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1646,17 +1643,17 @@
   <dimension ref="A7:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
     <col min="3" max="3" width="9.19921875" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.06640625" customWidth="1"/>
     <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" customWidth="1"/>
     <col min="7" max="7" width="10.9296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
@@ -1684,7 +1681,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -1783,45 +1780,35 @@
         <v>0</v>
       </c>
       <c r="B14" s="10">
-        <v>17450409</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>1001360203</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
       <c r="D14" s="10">
-        <v>52380008.579499997</v>
+        <v>1001378761</v>
       </c>
       <c r="E14" s="11">
-        <v>9834.5895663113097</v>
+        <v>0</v>
       </c>
       <c r="F14" s="10">
-        <v>61046958.953699999</v>
+        <v>1001368291</v>
       </c>
       <c r="G14" s="11">
-        <v>4548.5497367266498</v>
+        <v>0</v>
       </c>
       <c r="H14" s="10">
-        <v>70539293.297000006</v>
+        <v>5900459671</v>
       </c>
       <c r="I14" s="11">
-        <v>9268.9340177392605</v>
-      </c>
-      <c r="J14" s="10">
-        <v>13469504317.1</v>
-      </c>
-      <c r="K14" s="11">
-        <v>12316092.5457063</v>
-      </c>
-      <c r="L14" s="10">
-        <v>13478058438.6</v>
-      </c>
-      <c r="M14" s="11">
-        <v>12170645.673912199</v>
-      </c>
-      <c r="N14" s="10">
-        <v>13489592238</v>
-      </c>
-      <c r="O14" s="18">
-        <v>10647855.8975411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="18"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="10"/>
@@ -1832,45 +1819,35 @@
         <v>1</v>
       </c>
       <c r="B15" s="10">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C15" s="11"/>
+        <v>646</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
       <c r="D15" s="10">
-        <v>6.7492000000000001</v>
+        <v>678</v>
       </c>
       <c r="E15" s="11">
-        <v>5.5102283074297299E-2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="10">
-        <v>8.9468999999999994</v>
+        <v>658</v>
       </c>
       <c r="G15" s="11">
-        <v>6.6223017146608401E-2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="10">
-        <v>11.502700000000001</v>
+        <v>1542</v>
       </c>
       <c r="I15" s="11">
-        <v>3.1406330572035901E-2</v>
-      </c>
-      <c r="J15" s="10">
-        <v>1365546.31</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1555.99633221932</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1364639.17</v>
-      </c>
-      <c r="M15" s="11">
-        <v>2186.4344607273201</v>
-      </c>
-      <c r="N15" s="10">
-        <v>1367565.57</v>
-      </c>
-      <c r="O15" s="18">
-        <v>1075.37222912626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="18"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="10"/>
@@ -1881,45 +1858,35 @@
         <v>2</v>
       </c>
       <c r="B16" s="10">
-        <v>45</v>
-      </c>
-      <c r="C16" s="11"/>
+        <v>28213</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
       <c r="D16" s="10">
-        <v>249.93049999999999</v>
+        <v>28748</v>
       </c>
       <c r="E16" s="11">
-        <v>20.0708021815372</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10">
-        <v>329.50080000000003</v>
+        <v>26121</v>
       </c>
       <c r="G16" s="11">
-        <v>19.3193241843083</v>
+        <v>0</v>
       </c>
       <c r="H16" s="10">
-        <v>449.93369999999999</v>
+        <v>68546</v>
       </c>
       <c r="I16" s="11">
-        <v>5.6345251258291498</v>
-      </c>
-      <c r="J16" s="10">
-        <v>68876432</v>
-      </c>
-      <c r="K16" s="11">
-        <v>99411.379014839593</v>
-      </c>
-      <c r="L16" s="10">
-        <v>69412725.980000004</v>
-      </c>
-      <c r="M16" s="11">
-        <v>160803.642533704</v>
-      </c>
-      <c r="N16" s="10">
-        <v>68887835.769999996</v>
-      </c>
-      <c r="O16" s="18">
-        <v>334723.30643710901</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="10"/>
@@ -1930,45 +1897,35 @@
         <v>3</v>
       </c>
       <c r="B17" s="10">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="C17" s="11"/>
+        <v>46018</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
       <c r="D17" s="10">
-        <v>376.04169999999999</v>
+        <v>47082</v>
       </c>
       <c r="E17" s="11">
-        <v>20.787534538910499</v>
+        <v>0</v>
       </c>
       <c r="F17" s="10">
-        <v>495.12419999999997</v>
+        <v>46097</v>
       </c>
       <c r="G17" s="11">
-        <v>19.906118054407202</v>
+        <v>0</v>
       </c>
       <c r="H17" s="10">
-        <v>35134295.646399997</v>
+        <v>4162317257</v>
       </c>
       <c r="I17" s="11">
-        <v>2417.1762592140699</v>
-      </c>
-      <c r="J17" s="10">
-        <v>208049509.71000001</v>
-      </c>
-      <c r="K17" s="11">
-        <v>2484012.7659607301</v>
-      </c>
-      <c r="L17" s="10">
-        <v>209053851.24000001</v>
-      </c>
-      <c r="M17" s="11">
-        <v>1287541.7673230299</v>
-      </c>
-      <c r="N17" s="10">
-        <v>208921443.75999999</v>
-      </c>
-      <c r="O17" s="18">
-        <v>1655528.57179404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="10"/>
@@ -2000,45 +1957,35 @@
         <v>0</v>
       </c>
       <c r="B19" s="10">
-        <v>17450596</v>
-      </c>
-      <c r="C19" s="11"/>
+        <v>1001419925</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
       <c r="D19" s="10">
-        <v>52375008.145599999</v>
+        <v>1001386001</v>
       </c>
       <c r="E19" s="11">
-        <v>4557.90086824234</v>
+        <v>0</v>
       </c>
       <c r="F19" s="10">
-        <v>61050921.824900001</v>
+        <v>1001374810</v>
       </c>
       <c r="G19" s="11">
-        <v>2945.0867703349199</v>
+        <v>0</v>
       </c>
       <c r="H19" s="10">
-        <v>70535626.999300003</v>
+        <v>5841458078</v>
       </c>
       <c r="I19" s="11">
-        <v>12620.092265826601</v>
-      </c>
-      <c r="J19" s="10">
-        <v>13469933900.1</v>
-      </c>
-      <c r="K19" s="11">
-        <v>10385607.2141215</v>
-      </c>
-      <c r="L19" s="10">
-        <v>13476951797.9</v>
-      </c>
-      <c r="M19" s="11">
-        <v>12543644.2043839</v>
-      </c>
-      <c r="N19" s="10">
-        <v>13486652156.5</v>
-      </c>
-      <c r="O19" s="18">
-        <v>11420195.1050807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="18"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="10"/>
@@ -2049,45 +1996,35 @@
         <v>4</v>
       </c>
       <c r="B20" s="10">
-        <v>0.97</v>
-      </c>
-      <c r="C20" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
       <c r="D20" s="10">
-        <v>6.1897000000000002</v>
+        <v>202</v>
       </c>
       <c r="E20" s="11">
-        <v>6.38227106914145E-2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="10">
-        <v>8.2566000000000006</v>
+        <v>189</v>
       </c>
       <c r="G20" s="11">
-        <v>4.4367943382581897E-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="10">
-        <v>99985.016300000003</v>
+        <v>143753858</v>
       </c>
       <c r="I20" s="11">
-        <v>0.42647962483570001</v>
-      </c>
-      <c r="J20" s="10">
-        <v>52003.35</v>
-      </c>
-      <c r="K20" s="11">
-        <v>4825.2385784398202</v>
-      </c>
-      <c r="L20" s="10">
-        <v>52038.27</v>
-      </c>
-      <c r="M20" s="11">
-        <v>58.219454961378602</v>
-      </c>
-      <c r="N20" s="10">
-        <v>52134.91</v>
-      </c>
-      <c r="O20" s="18">
-        <v>27.611521508239999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="18"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="10"/>
@@ -2098,45 +2035,35 @@
         <v>2</v>
       </c>
       <c r="B21" s="10">
-        <v>45.2</v>
-      </c>
-      <c r="C21" s="11"/>
+        <v>28606</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
       <c r="D21" s="10">
-        <v>245.47139999999999</v>
+        <v>29030</v>
       </c>
       <c r="E21" s="11">
-        <v>8.9481818824608101</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10">
-        <v>337.81420000000003</v>
+        <v>27680</v>
       </c>
       <c r="G21" s="11">
-        <v>12.561261868363299</v>
+        <v>0</v>
       </c>
       <c r="H21" s="10">
-        <v>411.48129999999998</v>
+        <v>61134</v>
       </c>
       <c r="I21" s="11">
-        <v>16.550570626368099</v>
-      </c>
-      <c r="J21" s="10">
-        <v>68916337.799999997</v>
-      </c>
-      <c r="K21" s="11">
-        <v>144309.771113547</v>
-      </c>
-      <c r="L21" s="10">
-        <v>68953046.329999998</v>
-      </c>
-      <c r="M21" s="11">
-        <v>141958.87869688601</v>
-      </c>
-      <c r="N21" s="10">
-        <v>69192439.650000006</v>
-      </c>
-      <c r="O21" s="18">
-        <v>165540.41800437399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="18"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="10"/>
@@ -2147,45 +2074,35 @@
         <v>3</v>
       </c>
       <c r="B22" s="10">
-        <v>64.7</v>
-      </c>
-      <c r="C22" s="11"/>
+        <v>52874</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
       <c r="D22" s="10">
-        <v>369.25740000000002</v>
+        <v>52673</v>
       </c>
       <c r="E22" s="11">
-        <v>8.6288926982782606</v>
+        <v>0</v>
       </c>
       <c r="F22" s="10">
-        <v>501.75029999999998</v>
+        <v>45329</v>
       </c>
       <c r="G22" s="11">
-        <v>12.7448012926055</v>
+        <v>0</v>
       </c>
       <c r="H22" s="10">
-        <v>35124771.921800002</v>
+        <v>4119688287</v>
       </c>
       <c r="I22" s="11">
-        <v>6295.60923011675</v>
-      </c>
-      <c r="J22" s="10">
-        <v>204975475.78</v>
-      </c>
-      <c r="K22" s="11">
-        <v>2298744.3516162699</v>
-      </c>
-      <c r="L22" s="10">
-        <v>208748473.02000001</v>
-      </c>
-      <c r="M22" s="11">
-        <v>903811.45937358995</v>
-      </c>
-      <c r="N22" s="10">
-        <v>207416076.88999999</v>
-      </c>
-      <c r="O22" s="18">
-        <v>1352077.3578972099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="18"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="10"/>
@@ -2239,38 +2156,29 @@
       </c>
       <c r="B25" s="10">
         <f>B16/B15</f>
-        <v>40.54054054054054</v>
+        <v>43.673374613003098</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10">
         <f>D16/D15</f>
-        <v>37.03112961536182</v>
+        <v>42.401179941002951</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="10">
-        <f t="shared" ref="F25:L25" si="0">F16/F15</f>
-        <v>36.828488079670059</v>
+        <f t="shared" ref="F25" si="0">F16/F15</f>
+        <v>39.69756838905775</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="10">
-        <f t="shared" ref="H25:N25" si="1">H16/H15</f>
-        <v>39.115485929390488</v>
+        <f t="shared" ref="H25" si="1">H16/H15</f>
+        <v>44.452658884565501</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="10">
-        <f t="shared" ref="J25:O25" si="2">J16/J15</f>
-        <v>50.438737592136292</v>
-      </c>
+      <c r="J25" s="10"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="10">
-        <f t="shared" ref="L25:O25" si="3">L16/L15</f>
-        <v>50.865259847407138</v>
-      </c>
+      <c r="L25" s="10"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="10">
-        <f t="shared" ref="L25:N25" si="4">N16/N15</f>
-        <v>50.372601710059129</v>
-      </c>
+      <c r="N25" s="10"/>
       <c r="O25" s="11"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="11"/>
@@ -2284,35 +2192,29 @@
       </c>
       <c r="B26" s="10">
         <f>(B22-B21)/B20</f>
-        <v>20.103092783505154</v>
+        <v>319.31578947368422</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="10">
         <f>(D22-D21)/D20</f>
-        <v>19.998707530251874</v>
+        <v>117.04455445544555</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="10">
-        <f t="shared" ref="F26:H26" si="5">(F22-F21)/F20</f>
-        <v>19.855158297604333</v>
+        <f t="shared" ref="F26" si="2">(F22-F21)/F20</f>
+        <v>93.38095238095238</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="10">
-        <f t="shared" ref="H26:J26" si="6">(H22-H21)/H20</f>
-        <v>351.29624157994965</v>
+        <f t="shared" ref="H26" si="3">(H22-H21)/H20</f>
+        <v>28.657506729315049</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="J26" s="10"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="L26" s="10"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="N26" s="10"/>
       <c r="O26" s="11"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="11"/>
@@ -2325,38 +2227,29 @@
       </c>
       <c r="B27" s="10">
         <f>B21/B22</f>
-        <v>0.69860896445131382</v>
+        <v>0.54102205242652346</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="10">
         <f>D21/D22</f>
-        <v>0.66477042843284917</v>
+        <v>0.55113625576671155</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="10">
-        <f t="shared" ref="F27:L27" si="7">F21/F22</f>
-        <v>0.6732715456273769</v>
+        <f t="shared" ref="F27" si="4">F21/F22</f>
+        <v>0.61064660592556641</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="10">
-        <f t="shared" ref="H27:N27" si="8">H21/H22</f>
-        <v>1.1714846175118259E-5</v>
+        <f t="shared" ref="H27" si="5">H21/H22</f>
+        <v>1.4839472246702048E-5</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="10">
-        <f t="shared" ref="J27:O27" si="9">J21/J22</f>
-        <v>0.33621747937283891</v>
-      </c>
+      <c r="J27" s="10"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="10">
-        <f t="shared" ref="L27:O27" si="10">L21/L22</f>
-        <v>0.33031641061821643</v>
-      </c>
+      <c r="L27" s="10"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="10">
-        <f t="shared" ref="L27:N27" si="11">N21/N22</f>
-        <v>0.33359246152695859</v>
-      </c>
+      <c r="N27" s="10"/>
       <c r="O27" s="11"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="11"/>
@@ -2369,38 +2262,29 @@
       </c>
       <c r="B28" s="10">
         <f>(B17/B14 + B22/B19)/2</f>
-        <v>3.7133601475179008E-6</v>
+        <v>4.9377260270633033E-5</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="10">
         <f>(D17/D14 + D22/D19)/2</f>
-        <v>7.1146833932405066E-6</v>
+        <v>4.9808635383721407E-5</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="10">
-        <f t="shared" ref="F28:L28" si="12">(F17/F14 + F22/F19)/2</f>
-        <v>8.1645502741990828E-6</v>
+        <f t="shared" ref="F28" si="6">(F17/F14 + F22/F19)/2</f>
+        <v>4.5650389435961904E-5</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="10">
-        <f t="shared" ref="H28:N28" si="13">(H17/H14 + H22/H19)/2</f>
-        <v>0.49802663166905692</v>
+        <f t="shared" ref="H28" si="7">(H17/H14 + H22/H19)/2</f>
+        <v>0.70533626881185185</v>
       </c>
       <c r="I28" s="11"/>
-      <c r="J28" s="10">
-        <f t="shared" ref="J28:O28" si="14">(J17/J14 + J22/J19)/2</f>
-        <v>1.5331612756149944E-2</v>
-      </c>
+      <c r="J28" s="10"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="10">
-        <f t="shared" ref="L28:O28" si="15">(L17/L14 + L22/L19)/2</f>
-        <v>1.5499987154934603E-2</v>
-      </c>
+      <c r="L28" s="10"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="10">
-        <f t="shared" ref="L28:N28" si="16">(N17/N14 + N22/N19)/2</f>
-        <v>1.5433481230384287E-2</v>
-      </c>
+      <c r="N28" s="10"/>
       <c r="O28" s="11"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="11"/>
@@ -2427,17 +2311,11 @@
         <v>16</v>
       </c>
       <c r="I29" s="15"/>
-      <c r="J29" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="J29" s="14"/>
       <c r="K29" s="15"/>
-      <c r="L29" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="L29" s="14"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="N29" s="14"/>
       <c r="O29" s="15"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="15"/>

--- a/microbench.xlsx
+++ b/microbench.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E22A4C7B-1C0B-4DB0-958D-FE21C88226B1}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="8_{3F92935B-8DE9-470E-873F-B48BFACEE69E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{C7FAC026-BA26-45E1-8D9E-02D4EBBCADCA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="1605" activeTab="1" xr2:uid="{3E858DCE-2DF8-49EC-95DA-5AD0EAE86CB9}"/>
   </bookViews>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E994B5E-2A10-40A8-AA9C-8099E04A1752}">
   <dimension ref="A7:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="10">
-        <f t="shared" ref="H26" si="3">(H22-H21)/H20</f>
+        <f>(H22-H21)/H20</f>
         <v>28.657506729315049</v>
       </c>
       <c r="I26" s="11"/>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="10">
-        <f t="shared" ref="F27" si="4">F21/F22</f>
+        <f t="shared" ref="F27" si="3">F21/F22</f>
         <v>0.61064660592556641</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="10">
-        <f t="shared" ref="H27" si="5">H21/H22</f>
+        <f t="shared" ref="H27" si="4">H21/H22</f>
         <v>1.4839472246702048E-5</v>
       </c>
       <c r="I27" s="11"/>
@@ -2271,12 +2271,12 @@
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="10">
-        <f t="shared" ref="F28" si="6">(F17/F14 + F22/F19)/2</f>
+        <f t="shared" ref="F28" si="5">(F17/F14 + F22/F19)/2</f>
         <v>4.5650389435961904E-5</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="10">
-        <f t="shared" ref="H28" si="7">(H17/H14 + H22/H19)/2</f>
+        <f t="shared" ref="H28" si="6">(H17/H14 + H22/H19)/2</f>
         <v>0.70533626881185185</v>
       </c>
       <c r="I28" s="11"/>
